--- a/output.XLSX
+++ b/output.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC496353-4245-4ADB-BE92-ABF3AFA931D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C154876D-3989-44A9-9A62-4B4331E79E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance Measurements - TCP (warm-up:</a:t>
+              <a:t>Performance Measurements - RDMA (warm-up:</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -288,67 +288,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.295072</c:v>
+                  <c:v>0.34686099999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7572999999999997E-2</c:v>
+                  <c:v>4.0241449999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5658999999999994E-2</c:v>
+                  <c:v>0.64557799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1349689999999999</c:v>
+                  <c:v>16.460905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.570823000000001</c:v>
+                  <c:v>32.989691000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77517499999999995</c:v>
+                  <c:v>66.528066999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.619047999999999</c:v>
+                  <c:v>115.73236900000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.355238999999997</c:v>
+                  <c:v>212.624585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.99282500000001</c:v>
+                  <c:v>383.80809599999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>275.71351600000003</c:v>
+                  <c:v>7.6332459999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>350.44490100000002</c:v>
+                  <c:v>14.570705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.35548799999998</c:v>
+                  <c:v>97.551681000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>556.52173900000003</c:v>
+                  <c:v>3124.3325709999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>786.406835</c:v>
+                  <c:v>3604.0475139999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1069.0330160000001</c:v>
+                  <c:v>3874.201939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1297.4342730000001</c:v>
+                  <c:v>4049.4315369999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1250.019074</c:v>
+                  <c:v>4137.8961989999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1308.887557</c:v>
+                  <c:v>4190.0134260000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1327.0560599999999</c:v>
+                  <c:v>4198.1999299999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1346.3269829999999</c:v>
+                  <c:v>4203.2822109999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1352.2318270000001</c:v>
+                  <c:v>233.19458299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.295072</v>
+        <v>0.34686099999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4.7572999999999997E-2</v>
+        <v>4.0241449999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>9.5658999999999994E-2</v>
+        <v>0.64557799999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>6.1349689999999999</v>
+        <v>16.460905</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>13.570823000000001</v>
+        <v>32.989691000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>0.77517499999999995</v>
+        <v>66.528066999999993</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="3">
-        <v>47.619047999999999</v>
+        <v>115.73236900000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>128</v>
       </c>
       <c r="B9" s="3">
-        <v>79.355238999999997</v>
+        <v>212.624585</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>256</v>
       </c>
       <c r="B10" s="3">
-        <v>166.99282500000001</v>
+        <v>383.80809599999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>512</v>
       </c>
       <c r="B11" s="3">
-        <v>275.71351600000003</v>
+        <v>7.6332459999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>1024</v>
       </c>
       <c r="B12" s="3">
-        <v>350.44490100000002</v>
+        <v>14.570705</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>2048</v>
       </c>
       <c r="B13" s="3">
-        <v>346.35548799999998</v>
+        <v>97.551681000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>4096</v>
       </c>
       <c r="B14" s="3">
-        <v>556.52173900000003</v>
+        <v>3124.3325709999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>8192</v>
       </c>
       <c r="B15" s="3">
-        <v>786.406835</v>
+        <v>3604.0475139999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>16384</v>
       </c>
       <c r="B16" s="3">
-        <v>1069.0330160000001</v>
+        <v>3874.201939</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>32768</v>
       </c>
       <c r="B17" s="3">
-        <v>1297.4342730000001</v>
+        <v>4049.4315369999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>65536</v>
       </c>
       <c r="B18" s="3">
-        <v>1250.019074</v>
+        <v>4137.8961989999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>131072</v>
       </c>
       <c r="B19" s="3">
-        <v>1308.887557</v>
+        <v>4190.0134260000004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>262144</v>
       </c>
       <c r="B20" s="3">
-        <v>1327.0560599999999</v>
+        <v>4198.1999299999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>524288</v>
       </c>
       <c r="B21" s="3">
-        <v>1346.3269829999999</v>
+        <v>4203.2822109999997</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>1048576</v>
       </c>
       <c r="B22" s="3">
-        <v>1352.2318270000001</v>
+        <v>233.19458299999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.XLSX
+++ b/output.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C154876D-3989-44A9-9A62-4B4331E79E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BCA221-923B-40F4-90E7-82CF02D451C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 500)</a:t>
+              <a:t> 700)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -288,67 +288,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.34686099999999997</c:v>
+                  <c:v>2.0242909999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0241449999999999</c:v>
+                  <c:v>4.3290040000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64557799999999999</c:v>
+                  <c:v>8.6580089999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.460905</c:v>
+                  <c:v>17.316016999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.989691000000001</c:v>
+                  <c:v>0.44455600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.528066999999993</c:v>
+                  <c:v>60.836502000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.73236900000001</c:v>
+                  <c:v>3.7894489999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>212.624585</c:v>
+                  <c:v>212.97836899999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>383.80809599999998</c:v>
+                  <c:v>77.882568000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6332459999999998</c:v>
+                  <c:v>6.7841529999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.570705</c:v>
+                  <c:v>14.570498000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.551681000000002</c:v>
+                  <c:v>60.965082000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3124.3325709999999</c:v>
+                  <c:v>3040.8314770000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3604.0475139999999</c:v>
+                  <c:v>3585.1203500000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3874.201939</c:v>
+                  <c:v>3749.1990850000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4049.4315369999999</c:v>
+                  <c:v>4015.1942159999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4137.8961989999998</c:v>
+                  <c:v>4097.5365760000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4190.0134260000004</c:v>
+                  <c:v>4137.5043400000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4198.1999299999998</c:v>
+                  <c:v>4160.5535890000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4203.2822109999997</c:v>
+                  <c:v>4172.8057049999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>233.19458299999999</c:v>
+                  <c:v>4176.3124459999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +1514,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.34686099999999997</v>
+        <v>2.0242909999999998</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4.0241449999999999</v>
+        <v>4.3290040000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>0.64557799999999999</v>
+        <v>8.6580089999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>16.460905</v>
+        <v>17.316016999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>32.989691000000001</v>
+        <v>0.44455600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>66.528066999999993</v>
+        <v>60.836502000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="3">
-        <v>115.73236900000001</v>
+        <v>3.7894489999999998</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>128</v>
       </c>
       <c r="B9" s="3">
-        <v>212.624585</v>
+        <v>212.97836899999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>256</v>
       </c>
       <c r="B10" s="3">
-        <v>383.80809599999998</v>
+        <v>77.882568000000006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>512</v>
       </c>
       <c r="B11" s="3">
-        <v>7.6332459999999998</v>
+        <v>6.7841529999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>1024</v>
       </c>
       <c r="B12" s="3">
-        <v>14.570705</v>
+        <v>14.570498000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>2048</v>
       </c>
       <c r="B13" s="3">
-        <v>97.551681000000002</v>
+        <v>60.965082000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>4096</v>
       </c>
       <c r="B14" s="3">
-        <v>3124.3325709999999</v>
+        <v>3040.8314770000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>8192</v>
       </c>
       <c r="B15" s="3">
-        <v>3604.0475139999999</v>
+        <v>3585.1203500000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>16384</v>
       </c>
       <c r="B16" s="3">
-        <v>3874.201939</v>
+        <v>3749.1990850000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>32768</v>
       </c>
       <c r="B17" s="3">
-        <v>4049.4315369999999</v>
+        <v>4015.1942159999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>65536</v>
       </c>
       <c r="B18" s="3">
-        <v>4137.8961989999998</v>
+        <v>4097.5365760000004</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>131072</v>
       </c>
       <c r="B19" s="3">
-        <v>4190.0134260000004</v>
+        <v>4137.5043400000004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>262144</v>
       </c>
       <c r="B20" s="3">
-        <v>4198.1999299999998</v>
+        <v>4160.5535890000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>524288</v>
       </c>
       <c r="B21" s="3">
-        <v>4203.2822109999997</v>
+        <v>4172.8057049999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>1048576</v>
       </c>
       <c r="B22" s="3">
-        <v>233.19458299999999</v>
+        <v>4176.3124459999999</v>
       </c>
     </row>
   </sheetData>

--- a/output.XLSX
+++ b/output.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BCA221-923B-40F4-90E7-82CF02D451C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277A0367-2CB7-4361-AE41-7CE7FB93E0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
